--- a/Mini Assignments/ProductionPivot_Kodali.xlsx
+++ b/Mini Assignments/ProductionPivot_Kodali.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sree/Documents/Data Analytics Boot Camp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sree/Documents/Boot Camp HW/excel-challenge/Mini Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D8B716-D69C-3E46-A420-BD8460146F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4892139-63AA-7240-AE0B-92D89A2CDD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30540" yWindow="680" windowWidth="21400" windowHeight="16340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -546,7 +545,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04BC3E04-EC61-C545-8994-1876439CCF22}" name="Production" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04BC3E04-EC61-C545-8994-1876439CCF22}" name="Production" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1232,7 +1231,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
